--- a/medicine/Œil et vue/I_Origins/I_Origins.xlsx
+++ b/medicine/Œil et vue/I_Origins/I_Origins.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">I Origins est un film de science-fiction dramatique indépendant, écrit, produit et réalisé par Mike Cahill, sorti en 2014.
 Ian Gray et son assistante Karen font des recherches sur l'origine de la vision et l'apparition de l'œil chez les espèces vivantes, tandis que leur ami Kenny constitue une base mondiale des iris, chaque iris étant propre à un individu. En découvrant le gène et sa mutation responsables de la vision, Ian apporte une pierre décisive à la théorie de l'évolution et croit porter un coup tout aussi décisif à la théorie du dessein intelligent et aux croyances en un dieu. Mais voilà qu'en consultant la base de données, il découvre que des personnes vivantes ont le même iris que des personnes mortes à l'époque de leur naissance.
@@ -512,12 +524,12 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ian Gray (Michael Pitt), un jeune étudiant doctorant en biologie moléculaire, porte ses recherches sur l'évolution de l'œil et pour cela photographie les yeux des humains depuis des années. Il rencontre Sofi (Àstrid Bergès-Frisbey), une jeune fille énigmatique, et ont tous deux un coup de foudre et ce malgré leurs notions différentes de la vie, il est scientifique et elle, spiritualiste. Tout bascule lorsqu'elle est victime d'un accident mortel dans un monte-charge.
 Après une longue période de deuil, Ian continue ses recherches. Sept ans plus tard, il épouse Karen (Brit Marling), sa partenaire de laboratoire, et ont un fils. Sur demande d'un docteur de l'hôpital, le Dr Simmons (Cara Seymour), des scans de l'iris de l'enfant sont effectués par ce dernier. Les scans correspondent à l'iris d'une personne morte, ce qui est impossible vu que chaque œil est unique. Le couple découvre ensuite qu'en Inde, à Delhi, les yeux d'une jeune fille ont été scannés trois mois auparavant et correspondent à ceux de Sofi. Karen convainc Ian de prendre l'avion et de rechercher la fillette. Il la retrouve et effectue des tests pour vérifier s'il y a des correspondances entre la fillette, qui se nomme Salumina (Kashish), et Sofi. Les résultats n'étant pas totalement concluants, il est très déçu. Il veut ramener Salumina chez elle, mais en voyant l'ascenseur béant, elle se met à hurler et pleurer, et se cramponne à lui.
-Scène post-générique
-Après le générique final, une scène post-crédits montre le Dr Simmons effectuant des scannings d'iris de personnalités décédées et trouvant une correspondance pour la plupart d'entre elles. Les personnalités sont John Fitzgerald Kennedy, l'aviatrice Amelia Earhart, Elvis Presley, John Lennon, Martin Luther King, Saddam Hussein, Che Guevara, Albert Einstein, Malcolm X, la militante Margaret Sanger, le Mahatma Gandhi, l'auteur Mari Sandoz, Nikola Tesla, Indira Gandhi, Robert Oppenheimer, Louis Armstrong, Lénine, Jacqueline Kennedy, l'architecte Frank Lloyd Wright, Adolf Hitler, les mafieux Meyer Lansky et Al Capone, Margaret Thatcher, Salvador Dalí, Abraham Lincoln et Nelson Mandela.
 </t>
         </is>
       </c>
@@ -543,10 +555,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Synopsis</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Scène post-générique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après le générique final, une scène post-crédits montre le Dr Simmons effectuant des scannings d'iris de personnalités décédées et trouvant une correspondance pour la plupart d'entre elles. Les personnalités sont John Fitzgerald Kennedy, l'aviatrice Amelia Earhart, Elvis Presley, John Lennon, Martin Luther King, Saddam Hussein, Che Guevara, Albert Einstein, Malcolm X, la militante Margaret Sanger, le Mahatma Gandhi, l'auteur Mari Sandoz, Nikola Tesla, Indira Gandhi, Robert Oppenheimer, Louis Armstrong, Lénine, Jacqueline Kennedy, l'architecte Frank Lloyd Wright, Adolf Hitler, les mafieux Meyer Lansky et Al Capone, Margaret Thatcher, Salvador Dalí, Abraham Lincoln et Nelson Mandela.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>I_Origins</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/I_Origins</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : I Origins
@@ -572,31 +623,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>I_Origins</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Œil et vue/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/I_Origins</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Michael Pitt (VFB : Sébastien Hébrant) : Ian Gray
 Brit Marling (VFB : Séverine Cayron) : Karen
@@ -614,40 +667,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>I_Origins</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Œil et vue/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/I_Origins</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Production</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est le deuxième film où Mike Cahill met en vedette les acteurs Brit Marling et William Mapother, après Another Earth sorti en 2011.
-Tournage
-Le tournage du film eu lieu aux États-Unis, dans les villes de Brooklyn et Chatham, dans l'état de New York, mais aussi à New Delhi, en Inde. Le réalisateur Mike Cahill explique pourquoi l'Inde était le pays le plus approprié pour son scénario : 
-« J’ai situé le troisième acte de l’histoire en Inde parce que nous parlons à la fois de science et de spiritualité. Dans ce pays unique, la notion d’âme est très ancrée dans tous les aspects de la vie, aussi bien religieux que quotidien. L’Inde est aussi un pays qui a engagé un vaste programme pour scanner l’iris de tous ses citoyens. À ce jour, le programme indien Aadhaar – lancé en 2009 et connu officiellement sous le nom de Unique Identification Authority of India – est probablement le plus ambitieux des projets de reconnaissance biométrique existant sur notre planète. Le gouvernement met sur pied une base de données qui concernera plus d’un milliard d’humains. Tourner là-bas avait donc beaucoup de sens. »
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -669,20 +688,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Réception critique</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En regard du box-office, I Origins reçoit des critiques mitigées. Il obtient 52% d'avis positifs sur Rotten Tomatoes, sur la base de 102 commentaires collectées, soutenant que « le réalisateur-scénariste Mike Cahill reste un talent intrigant et ambitieux, mais avec le film dramatique inégalé de science-fiction I Origins à sa portée dépasse ses limites. »[1]. Sur Metacritic, il obtient une note favorable de 57/100, sur la base de 36 commentaires collectées, ce qui lui permet d'obtenir le label « Critiques mitigées ou moyennes »[2] et est évalué à une moyenne de 3/5 pour 11 critiques de presse sur Allociné. 
-« (...) Une curiosité aussi originale que poétique, et une méditation sur le regard scientifique d'une rare justesse. »
-— Noémie Luciani, Le Monde, 23 septembre 2014[3].
-« Une curieuse tentative de SF indé moyennement inspirée. »
-— Jacky Goldberg, Les Inrocks, 23 septembre 2014[4].
-« Cela peut paraître flou, mais Mike Cahill effectue la mise au point avec talent, parvenant à exposer sa réflexion sans perdre de vue l’essentiel : communiquer des émotions au spectateur (...). »
-— Yannick Vely, Paris Match, 23 septembre 2014[5].
-« Entre fable, science-fiction et poésie, un récit aussi candide qu'audacieux. »
-— Corinne Renou-Nativel, La Croix, 25 septembre 2014[6].</t>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est le deuxième film où Mike Cahill met en vedette les acteurs Brit Marling et William Mapother, après Another Earth sorti en 2011.
+</t>
         </is>
       </c>
     </row>
@@ -707,10 +721,90 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage du film eu lieu aux États-Unis, dans les villes de Brooklyn et Chatham, dans l'état de New York, mais aussi à New Delhi, en Inde. Le réalisateur Mike Cahill explique pourquoi l'Inde était le pays le plus approprié pour son scénario : 
+« J’ai situé le troisième acte de l’histoire en Inde parce que nous parlons à la fois de science et de spiritualité. Dans ce pays unique, la notion d’âme est très ancrée dans tous les aspects de la vie, aussi bien religieux que quotidien. L’Inde est aussi un pays qui a engagé un vaste programme pour scanner l’iris de tous ses citoyens. À ce jour, le programme indien Aadhaar – lancé en 2009 et connu officiellement sous le nom de Unique Identification Authority of India – est probablement le plus ambitieux des projets de reconnaissance biométrique existant sur notre planète. Le gouvernement met sur pied une base de données qui concernera plus d’un milliard d’humains. Tourner là-bas avait donc beaucoup de sens. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>I_Origins</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/I_Origins</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Réception critique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>En regard du box-office, I Origins reçoit des critiques mitigées. Il obtient 52% d'avis positifs sur Rotten Tomatoes, sur la base de 102 commentaires collectées, soutenant que « le réalisateur-scénariste Mike Cahill reste un talent intrigant et ambitieux, mais avec le film dramatique inégalé de science-fiction I Origins à sa portée dépasse ses limites. ». Sur Metacritic, il obtient une note favorable de 57/100, sur la base de 36 commentaires collectées, ce qui lui permet d'obtenir le label « Critiques mitigées ou moyennes » et est évalué à une moyenne de 3/5 pour 11 critiques de presse sur Allociné. 
+« (...) Une curiosité aussi originale que poétique, et une méditation sur le regard scientifique d'une rare justesse. »
+— Noémie Luciani, Le Monde, 23 septembre 2014.
+« Une curieuse tentative de SF indé moyennement inspirée. »
+— Jacky Goldberg, Les Inrocks, 23 septembre 2014.
+« Cela peut paraître flou, mais Mike Cahill effectue la mise au point avec talent, parvenant à exposer sa réflexion sans perdre de vue l’essentiel : communiquer des émotions au spectateur (...). »
+— Yannick Vely, Paris Match, 23 septembre 2014.
+« Entre fable, science-fiction et poésie, un récit aussi candide qu'audacieux. »
+— Corinne Renou-Nativel, La Croix, 25 septembre 2014.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>I_Origins</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/I_Origins</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
